--- a/Database/Data.xlsx
+++ b/Database/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTAPPTECH\PROJECT_team5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTAPPTECH\PROJECT_team5\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9146A62-7A9A-49DD-AA44-3499B1681477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27468F5F-C410-4510-B1E4-67DC9637E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1FC20FA8-FC74-4AC4-97B5-720A134DEE76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1FC20FA8-FC74-4AC4-97B5-720A134DEE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,35 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
-  <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Tên loại</t>
-  </si>
-  <si>
-    <t>Loại spID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phân Loại </t>
-  </si>
-  <si>
-    <t>Nhóm Phân Loại</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Tên Phân Loại</t>
-  </si>
-  <si>
     <t>Tivi, Loa, Âm Thanh</t>
   </si>
   <si>
-    <t>Loại SP</t>
-  </si>
-  <si>
     <t>Tivi 8k</t>
   </si>
   <si>
@@ -116,69 +95,18 @@
     <t>Coway</t>
   </si>
   <si>
-    <t xml:space="preserve">Bình nóng lạnh, lọc nước </t>
-  </si>
-  <si>
     <t>Điện gia dụng</t>
   </si>
   <si>
-    <t xml:space="preserve">Đồ dung gia đình </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tủ Lạnh </t>
-  </si>
-  <si>
     <t>Tủ Đông</t>
   </si>
   <si>
-    <t xml:space="preserve">Tủ mát </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tủ ướp lạnh rượu </t>
-  </si>
-  <si>
-    <t>Phân loai ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máy Giặt </t>
-  </si>
-  <si>
     <t>Máy Sấy</t>
   </si>
   <si>
-    <t xml:space="preserve">Loại Điều hoà </t>
-  </si>
-  <si>
-    <t>Tiêu Chí lựa chọn</t>
-  </si>
-  <si>
-    <t>Máy lọc nước</t>
-  </si>
-  <si>
-    <t>Cây nước nóng lạnh</t>
-  </si>
-  <si>
-    <t>Dụng cụ nhà bếp</t>
-  </si>
-  <si>
-    <t>Thiết bị gia đình</t>
-  </si>
-  <si>
-    <t>Sản phẩm khác</t>
-  </si>
-  <si>
-    <t>Đồ dùng nhà bếp</t>
-  </si>
-  <si>
     <t>Đồ dùng khác</t>
   </si>
   <si>
-    <t>Thương Hiệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tivi 4k </t>
-  </si>
-  <si>
     <t>OLED</t>
   </si>
   <si>
@@ -200,21 +128,9 @@
     <t>Dàn âm thanh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lao kéo </t>
-  </si>
-  <si>
     <t>Android TV Box</t>
   </si>
   <si>
-    <t>Tên SP</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Mã SP</t>
-  </si>
-  <si>
     <t>Smart Tivi Neo QLED Samsung 8K 75 inch QA75QN800A</t>
   </si>
   <si>
@@ -224,15 +140,6 @@
     <t xml:space="preserve">ID </t>
   </si>
   <si>
-    <t>Tên Thương hiệu</t>
-  </si>
-  <si>
-    <t>Thương hiệu ID</t>
-  </si>
-  <si>
-    <t>số lượng</t>
-  </si>
-  <si>
     <t>LG</t>
   </si>
   <si>
@@ -585,6 +492,291 @@
   </si>
   <si>
     <t>Còn bạn nhé. Rất nhiều vì đắt quá đang ế mà.</t>
+  </si>
+  <si>
+    <t>Bình Nóng Lạnh</t>
+  </si>
+  <si>
+    <t>Tivi 4k</t>
+  </si>
+  <si>
+    <t>Lao kéo</t>
+  </si>
+  <si>
+    <t>Tủ Lạng Mini</t>
+  </si>
+  <si>
+    <t>Tủ Lạnh 2 Cánh</t>
+  </si>
+  <si>
+    <t>Tủ lạnh 3,4 cánh</t>
+  </si>
+  <si>
+    <t>Tủ lạnh 5 cánh</t>
+  </si>
+  <si>
+    <t>Tủ lạnh Side by side</t>
+  </si>
+  <si>
+    <t>Lồng ngang</t>
+  </si>
+  <si>
+    <t>Lồng đứng</t>
+  </si>
+  <si>
+    <t>Máy giặt sấy</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Điều hoà treo tường</t>
+  </si>
+  <si>
+    <t>Điều hoà tủ đứng</t>
+  </si>
+  <si>
+    <t>Điều hoà âm trần</t>
+  </si>
+  <si>
+    <t>Điều hoà Inverter Tiết kiệm điện</t>
+  </si>
+  <si>
+    <t>Điều hoà 9000 BTU</t>
+  </si>
+  <si>
+    <t>Điều hoà 1200 BTU</t>
+  </si>
+  <si>
+    <t>Điều hoà 1 chiều</t>
+  </si>
+  <si>
+    <t>Điều hoà 2 chiều</t>
+  </si>
+  <si>
+    <t>Huyndai</t>
+  </si>
+  <si>
+    <t>Fuje</t>
+  </si>
+  <si>
+    <t>Nồi cơm điện</t>
+  </si>
+  <si>
+    <t>Lò vi sóng</t>
+  </si>
+  <si>
+    <t>Lò nướng</t>
+  </si>
+  <si>
+    <t>Nồi chiên không dầu</t>
+  </si>
+  <si>
+    <t>Vỉ nướng</t>
+  </si>
+  <si>
+    <t>Nồi áp suất điện</t>
+  </si>
+  <si>
+    <t>Nồi Lẩu điện</t>
+  </si>
+  <si>
+    <t>Ấm siêu tốc</t>
+  </si>
+  <si>
+    <t>Bình thuỷ điện</t>
+  </si>
+  <si>
+    <t>Máy rửa bát</t>
+  </si>
+  <si>
+    <t>Máy sấy bát</t>
+  </si>
+  <si>
+    <t>Bếp từ</t>
+  </si>
+  <si>
+    <t>Bếp hồng ngoại</t>
+  </si>
+  <si>
+    <t>Bếp gas</t>
+  </si>
+  <si>
+    <t>Máy xay, máy ép</t>
+  </si>
+  <si>
+    <t>Ấm sắc thuốc</t>
+  </si>
+  <si>
+    <t>Máy lọc không khí</t>
+  </si>
+  <si>
+    <t>Máy hút bụi</t>
+  </si>
+  <si>
+    <t>Quạt điều hoà</t>
+  </si>
+  <si>
+    <t>quạt</t>
+  </si>
+  <si>
+    <t>Tủ sấy quần áo</t>
+  </si>
+  <si>
+    <t>Máy hút mùi</t>
+  </si>
+  <si>
+    <t>Máy hút ẩm</t>
+  </si>
+  <si>
+    <t>Bàn là</t>
+  </si>
+  <si>
+    <t>Máy sấy tóc</t>
+  </si>
+  <si>
+    <t>Thiết bị sưởi</t>
+  </si>
+  <si>
+    <t>Máy bơm nước</t>
+  </si>
+  <si>
+    <t>Máy phát điện</t>
+  </si>
+  <si>
+    <t>Máy phun xịt rửa</t>
+  </si>
+  <si>
+    <t>Máy khoan</t>
+  </si>
+  <si>
+    <t>Ổn áp</t>
+  </si>
+  <si>
+    <t>Đèn điện</t>
+  </si>
+  <si>
+    <t>Nồi, nộ nồi</t>
+  </si>
+  <si>
+    <t>Chảo chống dính</t>
+  </si>
+  <si>
+    <t>Nồi áp suất cơ</t>
+  </si>
+  <si>
+    <t>Bình, hộp giữ nhiệt</t>
+  </si>
+  <si>
+    <t>Bát, đĩa</t>
+  </si>
+  <si>
+    <t>Thùng đựng gạo</t>
+  </si>
+  <si>
+    <t>Khoá điện tủ</t>
+  </si>
+  <si>
+    <t>Két sắt</t>
+  </si>
+  <si>
+    <t>Thang nhôm</t>
+  </si>
+  <si>
+    <t>Cân điện tử</t>
+  </si>
+  <si>
+    <t>Chổi lau nhà</t>
+  </si>
+  <si>
+    <t>Thùng rác</t>
+  </si>
+  <si>
+    <t>Các đồ gia đình khác</t>
+  </si>
+  <si>
+    <t>PhanLoaiID</t>
+  </si>
+  <si>
+    <t>LoaiSanPham</t>
+  </si>
+  <si>
+    <t>TenLoai</t>
+  </si>
+  <si>
+    <t>Tủ Lạnh</t>
+  </si>
+  <si>
+    <t>Tủ Mát</t>
+  </si>
+  <si>
+    <t>Tủ Ướp Lạnh Rượu</t>
+  </si>
+  <si>
+    <t>Máy Giặt</t>
+  </si>
+  <si>
+    <t>Loại Điều Hoà</t>
+  </si>
+  <si>
+    <t>Tiêu Chí Lựa Chọn</t>
+  </si>
+  <si>
+    <t>Bình nóng lạnh, lọc nước</t>
+  </si>
+  <si>
+    <t>Máy Lọc Nước</t>
+  </si>
+  <si>
+    <t>Cây Nước Nóng Lạnh</t>
+  </si>
+  <si>
+    <t>Dụng Cụ Nhà Bếp</t>
+  </si>
+  <si>
+    <t>Thiết Bị Gia Đình</t>
+  </si>
+  <si>
+    <t>Sản Phẩm Khác</t>
+  </si>
+  <si>
+    <t>Đồ dùng gia Đình</t>
+  </si>
+  <si>
+    <t>Đồ Dùng Nhà Bếp</t>
+  </si>
+  <si>
+    <t>NhomPhanLoai</t>
+  </si>
+  <si>
+    <t>ThuongHieu</t>
+  </si>
+  <si>
+    <t>TenThuongHieu</t>
+  </si>
+  <si>
+    <t>TenPhanLoai</t>
+  </si>
+  <si>
+    <t>PhanLoai</t>
+  </si>
+  <si>
+    <t>LoaiSanPhamID</t>
+  </si>
+  <si>
+    <t>TenSanPham</t>
+  </si>
+  <si>
+    <t>Gia</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>ThuongHieuID</t>
+  </si>
+  <si>
+    <t>SanPham</t>
   </si>
 </sst>
 </file>
@@ -794,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,7 +998,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -863,20 +1054,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FFCA18-8F67-4A60-9FB8-A78CDBD38592}">
   <dimension ref="A2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +1838,7 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1663,7 +1863,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1675,30 +1875,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A925856-BB14-410A-936A-21608E55D870}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.1796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="4"/>
-    <col min="15" max="15" width="52.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.7265625" style="4"/>
@@ -1722,173 +1922,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="35" t="s">
+      <c r="A1" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="34"/>
+      <c r="S1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="W1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AB1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AG1" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+    </row>
+    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="S1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="W1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AB1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AG1" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-    </row>
-    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="G3" s="1">
         <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="37">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1896,16 +2096,13 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="4">
-        <v>1</v>
+      <c r="N3" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="1">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1">
         <v>10</v>
       </c>
       <c r="S3" s="1">
@@ -1915,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="W3" s="1">
         <v>1</v>
@@ -1924,23 +2121,23 @@
         <v>1</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="26">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="25">
         <v>1</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="26">
         <v>1</v>
       </c>
-      <c r="AD3" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AD3" s="27" t="s">
         <v>106</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="AG3" s="1">
         <v>1</v>
@@ -1949,35 +2146,39 @@
         <v>1</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AJ3" s="1">
         <v>353013130</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="4">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="35">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -1986,44 +2187,46 @@
         <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
       </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="30">
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29">
         <v>2</v>
       </c>
-      <c r="AD4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE4" s="28" t="s">
-        <v>108</v>
+      <c r="AD4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="35">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="4">
+        <v>222</v>
+      </c>
+      <c r="E5" s="35">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
@@ -2032,42 +2235,46 @@
         <v>3</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="X5" s="1">
         <v>3</v>
       </c>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="30">
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="29">
         <v>3</v>
       </c>
-      <c r="AD5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE5" s="28" t="s">
-        <v>49</v>
+      <c r="AD5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="4">
+      <c r="A6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="35">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -2076,42 +2283,46 @@
         <v>4</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="X6" s="1">
         <v>4</v>
       </c>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="30">
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29">
         <v>4</v>
       </c>
-      <c r="AD6" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE6" s="28" t="s">
-        <v>111</v>
+      <c r="AD6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="4">
+      <c r="A7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="4">
+        <v>223</v>
+      </c>
+      <c r="E7" s="35">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
@@ -2120,42 +2331,46 @@
         <v>5</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="X7" s="1">
         <v>5</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="30">
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="29">
         <v>5</v>
       </c>
-      <c r="AD7" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE7" s="28" t="s">
-        <v>113</v>
+      <c r="AD7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="4">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="35">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="4">
+        <v>224</v>
+      </c>
+      <c r="E8" s="35">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -2164,44 +2379,46 @@
         <v>6</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="X8" s="1">
         <v>6</v>
       </c>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="30">
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="29">
         <v>6</v>
       </c>
-      <c r="AD8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE8" s="28" t="s">
-        <v>115</v>
+      <c r="AD8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="35">
+        <v>7</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="4">
+        <v>225</v>
+      </c>
+      <c r="E9" s="35">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
@@ -2210,44 +2427,46 @@
         <v>7</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="X9" s="1">
         <v>7</v>
       </c>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="30">
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29">
         <v>7</v>
       </c>
-      <c r="AD9" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE9" s="28" t="s">
-        <v>117</v>
+      <c r="AD9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="4">
+      <c r="A10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="38">
+        <v>21</v>
+      </c>
+      <c r="E10" s="35">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
@@ -2256,44 +2475,46 @@
         <v>8</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="X10" s="1">
         <v>8</v>
       </c>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="30">
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="29">
         <v>8</v>
       </c>
-      <c r="AD10" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE10" s="28" t="s">
-        <v>119</v>
+      <c r="AD10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="35">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="4">
+        <v>226</v>
+      </c>
+      <c r="E11" s="35">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -2302,42 +2523,46 @@
         <v>9</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="X11" s="1">
         <v>9</v>
       </c>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="30">
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="29">
         <v>9</v>
       </c>
-      <c r="AD11" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE11" s="28" t="s">
-        <v>119</v>
+      <c r="AD11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE11" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="4">
+      <c r="A12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="4">
+        <v>227</v>
+      </c>
+      <c r="E12" s="35">
         <v>10</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
+      <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
@@ -2346,44 +2571,46 @@
         <v>10</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="X12" s="1">
         <v>10</v>
       </c>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="30">
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="29">
         <v>10</v>
       </c>
-      <c r="AD12" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" s="28" t="s">
-        <v>122</v>
+      <c r="AD12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="35">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="4">
+        <v>229</v>
+      </c>
+      <c r="E13" s="35">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="S13" s="1">
         <v>1</v>
@@ -2392,35 +2619,46 @@
         <v>11</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="X13" s="1">
         <v>11</v>
       </c>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="30">
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29">
         <v>11</v>
       </c>
-      <c r="AD13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE13" s="28" t="s">
-        <v>124</v>
+      <c r="AD13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE13" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="4">
+      <c r="A14" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="35">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>230</v>
+      </c>
+      <c r="E14" s="35">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
@@ -2429,257 +2667,1182 @@
         <v>12</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X14" s="1">
         <v>12</v>
       </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="30">
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="29">
         <v>12</v>
       </c>
-      <c r="AD14" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE14" s="28" t="s">
-        <v>126</v>
+      <c r="AD14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE14" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="35">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>231</v>
+      </c>
+      <c r="E15" s="35">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
       </c>
       <c r="I15" s="1">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="30">
+        <v>44</v>
+      </c>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="29">
         <v>13</v>
       </c>
-      <c r="AD15" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE15" s="28" t="s">
-        <v>128</v>
+      <c r="AD15" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE15" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="4">
+      <c r="A16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="35">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>232</v>
+      </c>
+      <c r="E16" s="35">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
       </c>
       <c r="I16" s="1">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29">
+        <v>14</v>
+      </c>
+      <c r="AD16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE16" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="30">
-        <v>14</v>
-      </c>
-      <c r="AD16" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE16" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="4">
+      <c r="B17" s="35">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>233</v>
+      </c>
+      <c r="E17" s="35">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="30">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="29">
         <v>15</v>
       </c>
-      <c r="AD17" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE17" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="42" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="AD17" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="35">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>235</v>
+      </c>
+      <c r="E18" s="35">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="30">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="29">
         <v>16</v>
       </c>
-      <c r="AD18" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE18" s="33" t="s">
-        <v>134</v>
+      <c r="AD18" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE18" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="4">
+      <c r="A19" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="35">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="E19" s="35">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="31">
+        <v>47</v>
+      </c>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="30">
         <v>17</v>
       </c>
-      <c r="AD19" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE19" s="32" t="s">
-        <v>136</v>
+      <c r="AD19" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE19" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="35">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="35">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
       <c r="I20" s="1">
         <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="E21" s="35">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="I21" s="1">
         <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="E22" s="35">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
       <c r="I22" s="1">
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E23" s="35">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
       <c r="I23" s="1">
         <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E24" s="35">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="I24" s="1">
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E25" s="35">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
       <c r="I25" s="1">
         <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E26" s="35">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
       <c r="I26" s="1">
         <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E27" s="35">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
       <c r="I27" s="1">
         <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E28" s="35">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
       <c r="I28" s="1">
         <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E29" s="35">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
       <c r="I29" s="1">
         <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E30" s="35">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E31" s="35">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E32" s="35">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="35">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E34" s="35">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="35">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="35">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="35">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E38" s="35">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="35">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E40" s="35">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E41" s="35">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E42" s="35">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E43" s="35">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E44" s="35">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E45" s="35">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="35">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E47" s="35">
+        <v>45</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E48" s="35">
+        <v>46</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" s="35">
+        <v>47</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50" s="35">
+        <v>48</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51" s="35">
+        <v>49</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E52" s="35">
+        <v>50</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E53" s="35">
+        <v>51</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E54" s="35">
+        <v>52</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="35">
+        <v>53</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E56" s="35">
+        <v>54</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E57" s="35">
+        <v>55</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E58" s="35">
+        <v>56</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="35">
+        <v>57</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E60" s="35">
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E61" s="35">
+        <v>59</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E62" s="35">
+        <v>60</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E63" s="35">
+        <v>61</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E64" s="35">
+        <v>62</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E65" s="35">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E66" s="35">
+        <v>64</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E67" s="35">
+        <v>65</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E68" s="35">
+        <v>66</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E69" s="35">
+        <v>67</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E70" s="35">
+        <v>68</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E71" s="35">
+        <v>69</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E72" s="35">
+        <v>70</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E73" s="35">
+        <v>71</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G73" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E74" s="35">
+        <v>72</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E75" s="35">
+        <v>73</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E76" s="35">
+        <v>74</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E77" s="35">
+        <v>75</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E78" s="35">
+        <v>76</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E79" s="35">
+        <v>77</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E80" s="35">
+        <v>78</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E81" s="35">
+        <v>79</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E82" s="35">
+        <v>80</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E83" s="35">
+        <v>81</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E84" s="35">
+        <v>82</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E85" s="35">
+        <v>83</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G85" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E86" s="35">
+        <v>84</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E87" s="35">
+        <v>85</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E88" s="35">
+        <v>86</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E89" s="35">
+        <v>87</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E90" s="35">
+        <v>88</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E91" s="35">
+        <v>89</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E92" s="35">
+        <v>90</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G92" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E93" s="35">
+        <v>91</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G93" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E94" s="35">
+        <v>92</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E95" s="35">
+        <v>93</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G95" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E96" s="35">
+        <v>94</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E97" s="35">
+        <v>95</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G97" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E98" s="35">
+        <v>96</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E99" s="35">
+        <v>97</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G99" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E100" s="35">
+        <v>98</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G100" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
+  <mergeCells count="8">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="E10:E13"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2709,62 +3872,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="J1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="J1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -2774,20 +3937,20 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>99</v>
+      <c r="C3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2796,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M3" s="1">
         <v>3283478</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.35">
@@ -2812,17 +3975,17 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>151</v>
+      <c r="C4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34.5" x14ac:dyDescent="0.35">
@@ -2832,20 +3995,20 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>154</v>
+      <c r="C5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="46" x14ac:dyDescent="0.35">
@@ -2855,23 +4018,23 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>159</v>
+      <c r="C6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>161</v>
+        <v>129</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.35">
@@ -2881,17 +4044,17 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>164</v>
+      <c r="C7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.35">
@@ -2901,17 +4064,17 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>167</v>
+      <c r="C8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23" x14ac:dyDescent="0.35">
@@ -2921,17 +4084,17 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>170</v>
+      <c r="C9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23" x14ac:dyDescent="0.35">
@@ -2941,677 +4104,677 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>174</v>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I11" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I12" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I13" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I14" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I15" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I16" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I109" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I110" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I111" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I112" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I113" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I114" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I115" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I116" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I117" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I118" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I119" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I120" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I121" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I122" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I123" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I124" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I125" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I126" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I127" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I128" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I130" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I132" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I133" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I134" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I135" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I136" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I137" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I138" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I139" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I140" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I141" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I142" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
